--- a/src/main/webapp/upload/teachers.xlsx
+++ b/src/main/webapp/upload/teachers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,13 +48,17 @@
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +84,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,28 +113,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -144,10 +134,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -462,44 +454,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74371692-B0F1-4D29-BFE7-DF42651FE803}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{F4E2EB42-8485-4576-8831-0C0C4D215372}">
+      <formula1>"软件学院,信工学院"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{264FD0C3-647C-4A65-89C3-54C9FA7DE414}">
+      <formula1>"软件工程系,网络工程系,数字媒体系,计算机科学与技术系,通信工程系"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/webapp/upload/teachers.xlsx
+++ b/src/main/webapp/upload/teachers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,6 +51,59 @@
   </si>
   <si>
     <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可带学生人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件学院</t>
+  </si>
+  <si>
+    <t>讲师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信工学院</t>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>网络工程</t>
+  </si>
+  <si>
+    <t>教师1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher2</t>
+  </si>
+  <si>
+    <t>teacher3</t>
+  </si>
+  <si>
+    <t>教授</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,17 +133,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,16 +203,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,52 +530,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74371692-B0F1-4D29-BFE7-DF42651FE803}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{F4E2EB42-8485-4576-8831-0C0C4D215372}">
       <formula1>"软件学院,信工学院"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{264FD0C3-647C-4A65-89C3-54C9FA7DE414}">
-      <formula1>"软件工程系,网络工程系,数字媒体系,计算机科学与技术系,通信工程系"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{F297967F-1F69-4977-B546-7FCB0C135078}">
+      <formula1>"软件工程,网络工程,物联网工程,数字媒体技术,计算机科学与技术,通信工程"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{D149145F-22B0-4469-80A8-EC7566598348}">
+      <formula1>"软件工程,网络工程,数字媒体,计算机科学与技术,通信工程"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/upload/teachers.xlsx
+++ b/src/main/webapp/upload/teachers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,7 +69,7 @@
   </si>
   <si>
     <t>专业</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>软件工程</t>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,12 +149,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -151,18 +165,12 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -203,19 +211,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -530,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74371692-B0F1-4D29-BFE7-DF42651FE803}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -542,43 +547,47 @@
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="19.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -603,8 +612,11 @@
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -629,8 +641,11 @@
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -654,6 +669,9 @@
       </c>
       <c r="H4" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/upload/teachers.xlsx
+++ b/src/main/webapp/upload/teachers.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\77213\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{B3DB1A13-8C5F-4BA5-B32D-84B21E541105}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,13 +115,34 @@
   </si>
   <si>
     <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>994/2</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +235,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,35 +546,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74371692-B0F1-4D29-BFE7-DF42651FE803}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="19.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
+    <col min="6" max="7" width="19.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="4" customWidth="1"/>
     <col min="10" max="10" width="16" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="11" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,10 +603,13 @@
         <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -615,8 +637,11 @@
       <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -645,7 +670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -677,16 +702,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{F4E2EB42-8485-4576-8831-0C0C4D215372}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"软件学院,信工学院"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{F297967F-1F69-4977-B546-7FCB0C135078}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"软件工程,网络工程,物联网工程,数字媒体技术,计算机科学与技术,通信工程"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{D149145F-22B0-4469-80A8-EC7566598348}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"软件工程,网络工程,数字媒体,计算机科学与技术,通信工程"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/upload/teachers.xlsx
+++ b/src/main/webapp/upload/teachers.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\77213\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,6 +125,60 @@
   <si>
     <t>出生年月</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>994/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>994/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
   <si>
     <r>
@@ -142,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +296,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,35 +605,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
-    <col min="6" max="7" width="19.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="19.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="16" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="4"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -638,10 +697,10 @@
         <v>24</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -669,8 +728,11 @@
       <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -698,18 +760,30 @@
       <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"软件学院,信工学院"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"软件工程,网络工程,物联网工程,数字媒体技术,计算机科学与技术,通信工程"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"软件工程,网络工程,数字媒体,计算机科学与技术,通信工程"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{A2356626-EE27-48FD-8A40-4A335556E809}">
+      <formula1>"软件工程,网络工程,物联网工程,数字媒体,计算机科学与技术,通信工程"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
